--- a/xlsx/肥胖症_intext.xlsx
+++ b/xlsx/肥胖症_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
   <si>
     <t>肥胖症</t>
   </si>
@@ -29,7 +29,7 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_美國_肥胖症</t>
+    <t>政策_政策_美国_肥胖症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%B0</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%B0%88%E7%A7%91</t>
   </si>
   <si>
-    <t>醫學專科</t>
+    <t>医学专科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>內分泌學</t>
+    <t>内分泌学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%B5%E7%99%BC%E7%97%87</t>
   </si>
   <si>
-    <t>併發症</t>
+    <t>并发症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%A1%80%E7%AE%A1%E7%96%BE%E7%97%85</t>
@@ -95,25 +95,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%BA%E6%96%B7%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>診斷方法</t>
+    <t>诊断方法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%98%E9%AB%94%E9%87%8D%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>身高體重指數</t>
+    <t>身高体重指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%83%BD%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>體能訓練</t>
+    <t>体能训练</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E5%BE%8C</t>
   </si>
   <si>
-    <t>預後</t>
+    <t>预后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E6%9C%9F%E5%AF%BF%E5%91%BD</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%94%E8%B3%AA%E9%87%8F%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>身體質量指數</t>
+    <t>身体质量指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E8%A1%9B%E7%94%9F%E7%BD%B2</t>
   </si>
   <si>
-    <t>行政院衛生署</t>
+    <t>行政院卫生署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F%E7%A6%8F%E5%88%A9%E9%83%A8</t>
   </si>
   <si>
-    <t>衛生福利部</t>
+    <t>卫生福利部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2%E5%9E%8B%E7%B3%96%E5%B0%BF%E7%97%85</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E5%8C%96%E6%80%A7%E9%97%9C%E7%AF%80%E7%82%8E</t>
   </si>
   <si>
-    <t>退化性關節炎</t>
+    <t>退化性关节炎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>熱量</t>
+    <t>热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>代謝</t>
+    <t>代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%82%E9%A3%9F</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>膳食纖維</t>
+    <t>膳食纤维</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-obesity_medication</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%83%E5%85%A7%E6%B0%B4%E7%90%83%E7%BD%AE%E6%94%BE%E8%A1%93</t>
   </si>
   <si>
-    <t>胃內水球置放術</t>
+    <t>胃内水球置放术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%A1%93</t>
   </si>
   <si>
-    <t>手術</t>
+    <t>手术</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Preventable_causes_of_death</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>公共衛生</t>
+    <t>公共卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5</t>
   </si>
   <si>
-    <t>兒童</t>
+    <t>儿童</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%84%82%E8%82%AA%E7%8E%87</t>
   </si>
   <si>
-    <t>體脂肪率</t>
+    <t>体脂肪率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%88%86%E4%BD%8D%E6%95%B0</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>高加索人種</t>
+    <t>高加索人种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E6%96%B7%E5%B1%A4</t>
   </si>
   <si>
-    <t>電腦斷層</t>
+    <t>电脑断层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%8C</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%96%98</t>
   </si>
   <si>
-    <t>氣喘</t>
+    <t>气喘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8</t>
@@ -293,31 +293,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AC%9D%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>代謝症候群</t>
+    <t>代谢症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%A1%80%E5%A3%93</t>
   </si>
   <si>
-    <t>高血壓</t>
+    <t>高血压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%90%E5%BC%8F%E7%94%9F%E6%B4%BB%E5%9E%8B%E6%85%8B</t>
   </si>
   <si>
-    <t>坐式生活型態</t>
+    <t>坐式生活型态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B0%E5%B3%B6%E7%B4%A0</t>
   </si>
   <si>
-    <t>胰島素</t>
+    <t>胰岛素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B0%E5%B3%B6%E7%B4%A0%E6%8A%B5%E6%8A%97</t>
   </si>
   <si>
-    <t>胰島素抵抗</t>
+    <t>胰岛素抵抗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E6%A0%93</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F%E7%A7%91</t>
   </si>
   <si>
-    <t>心臟科</t>
+    <t>心脏科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%A0%E5%BF%83%E7%97%87</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%B1%E8%A1%80%E6%80%A7%E5%BF%83%E8%A1%B0%E7%AB%AD</t>
   </si>
   <si>
-    <t>鬱血性心衰竭</t>
+    <t>郁血性心衰竭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dyslipidemia</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E9%83%A8%E9%9D%9C%E8%84%88%E6%A0%93%E5%A1%9E</t>
   </si>
   <si>
-    <t>深部靜脈栓塞</t>
+    <t>深部静脉栓塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%BA%E6%A0%93%E5%A1%9E</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%86%9A%E7%A7%91</t>
   </si>
   <si>
-    <t>皮膚科</t>
+    <t>皮肤科</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stretch_marks</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9C%82%E7%AA%A9%E6%80%A7%E7%B5%84%E7%B9%94%E7%82%8E</t>
   </si>
   <si>
-    <t>蜂窩性組織炎</t>
+    <t>蜂窝性组织炎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%AF%9B%E7%97%87</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C</t>
   </si>
   <si>
-    <t>內分泌</t>
+    <t>内分泌</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reproductive_medicine</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%B6%93</t>
   </si>
   <si>
-    <t>月經</t>
+    <t>月经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%AD%95%E7%97%87</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E7%94%A2</t>
   </si>
   <si>
-    <t>死產</t>
+    <t>死产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%9D%E8%86%BD%E8%85%B8%E8%83%83%E7%A7%91</t>
   </si>
   <si>
-    <t>肝膽腸胃科</t>
+    <t>肝胆肠胃科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%83%E9%A3%9F%E9%81%93%E9%80%86%E6%B5%81</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>神經內科</t>
+    <t>神经内科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%A2%A8</t>
   </si>
   <si>
-    <t>中風</t>
+    <t>中风</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Meralgia_paraesthetica</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E9%A0%AD%E7%97%9B</t>
   </si>
   <si>
-    <t>偏頭痛</t>
+    <t>偏头痛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%95%E9%9A%A7%E9%81%93%E7%97%87%E5%80%99%E7%BE%A4</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%AB%E7%98%A4%E7%A7%91</t>
   </si>
   <si>
-    <t>腫瘤科</t>
+    <t>肿瘤科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E9%81%93%E7%99%8C</t>
@@ -557,19 +557,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%85%B8%E7%9B%B4%E8%85%B8%E7%99%8C</t>
   </si>
   <si>
-    <t>大腸直腸癌</t>
+    <t>大肠直肠癌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B0%E8%87%9F%E7%99%8C</t>
   </si>
   <si>
-    <t>胰臟癌</t>
+    <t>胰脏癌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%BD%E9%81%93%E7%99%8C</t>
   </si>
   <si>
-    <t>膽道癌</t>
+    <t>胆道癌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%AE%AB%E5%86%85%E8%86%9C%E7%99%8C</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%82%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>憂鬱症</t>
+    <t>忧郁症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_stigma</t>
@@ -623,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%B8%E8%85%94%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>胸腔醫學</t>
+    <t>胸腔医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E8%83%96%E8%82%BA%E6%8F%9B%E6%B0%A3%E4%B8%8D%E8%B6%B3%E7%B6%9C%E5%90%88%E7%97%87</t>
   </si>
   <si>
-    <t>肥胖肺換氣不足綜合症</t>
+    <t>肥胖肺换气不足综合症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%BA%AB%E9%BA%BB%E9%86%89</t>
@@ -647,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%BA%BC%E5%85%8D%E7%96%AB%E7%A7%91</t>
   </si>
   <si>
-    <t>風溼免疫科</t>
+    <t>风溼免疫科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%9B%E9%A2%A8</t>
   </si>
   <si>
-    <t>痛風</t>
+    <t>痛风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%83%8C%E7%97%9B</t>
@@ -671,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E8%87%9F%E7%A7%91</t>
   </si>
   <si>
-    <t>腎臟科</t>
+    <t>肾脏科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%B5%B7%E5%9B%B0%E9%9B%A3</t>
   </si>
   <si>
-    <t>勃起困難</t>
+    <t>勃起困难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BF%E5%A4%B1%E7%A6%81</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E8%8E%96%E5%8C%85%E5%9F%8B</t>
   </si>
   <si>
-    <t>陰莖包埋</t>
+    <t>阴茎包埋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E6%B6%B2%E9%80%8F%E6%9E%90</t>
@@ -719,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E9%82%8A%E8%A1%80%E7%AE%A1%E7%96%BE%E7%97%85</t>
   </si>
   <si>
-    <t>周邊血管疾病</t>
+    <t>周边血管疾病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%A1%80%E7%AE%A1%E7%B9%9E%E9%81%93%E6%89%8B%E8%A1%93</t>
   </si>
   <si>
-    <t>心血管繞道手術</t>
+    <t>心血管绕道手术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%A2%E6%80%A7%E9%98%BB%E5%A1%9E%E6%80%A7%E8%82%BA%E7%97%85</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA%E9%85%B8%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>脂肪酸代謝</t>
+    <t>脂肪酸代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E7%B2%BE%E7%A5%9E%E7%97%85%E8%8D%AF</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E5%BE%B5%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>表徵遺傳學</t>
+    <t>表征遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%80%89%E6%8B%A9</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%99%BC%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>開發中國家</t>
+    <t>开发中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
@@ -827,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF%E7%89%87</t>
   </si>
   <si>
-    <t>馬鈴薯片</t>
+    <t>马铃薯片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>食物熱量</t>
+    <t>食物热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%A3%9F</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E6%A8%99%E7%B1%A4</t>
   </si>
   <si>
-    <t>營養標籤</t>
+    <t>营养标籤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E9%87%8F%E8%AE%A1</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E5%9E%8B%E6%85%8B</t>
   </si>
   <si>
-    <t>生活型態</t>
+    <t>生活型态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%8C%96</t>
@@ -929,13 +929,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%BE%B7-%E7%95%A2%E5%BE%B7%E6%B0%8F%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>巴德-畢德氏症候群</t>
+    <t>巴德-毕德氏症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%81%A9%E7%B6%9C%E5%90%88%E7%97%87</t>
   </si>
   <si>
-    <t>科恩綜合症</t>
+    <t>科恩综合症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/MOMO_syndrome</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E6%A0%B8%E8%8B%B7%E9%85%B8%E5%A4%9A%E6%85%8B%E6%80%A7</t>
   </si>
   <si>
-    <t>單核苷酸多態性</t>
+    <t>单核苷酸多态性</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/thrifty_gene_hypothesis</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%A2%E8%8D%92</t>
   </si>
   <si>
-    <t>飢荒</t>
+    <t>饥荒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pima_people</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E8%83%96%E6%9A%B4%E9%A3%9F%E7%97%87</t>
   </si>
   <si>
-    <t>過胖暴食症</t>
+    <t>过胖暴食症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/night_eating_syndrome</t>
@@ -1025,9 +1025,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%B0%E5%B2%9B%E7%B4%A0</t>
   </si>
   <si>
-    <t>胰岛素</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E9%85%B0%E8%84%B2</t>
   </si>
   <si>
@@ -1091,25 +1088,25 @@
     <t>https://ja.wikipedia.org/wiki/%E7%97%85%E8%8D%89%E7%B4%99</t>
   </si>
   <si>
-    <t>ja-病草紙</t>
+    <t>ja-病草纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>社會階級</t>
+    <t>社会阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%85%A5%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
@@ -1121,19 +1118,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E9%81%A9%E8%83%BD</t>
   </si>
   <si>
-    <t>體適能</t>
+    <t>体适能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>未開發國家</t>
+    <t>未开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>流行病學</t>
+    <t>流行病学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cognitive_deficit</t>
@@ -1175,13 +1172,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>脂肪組織</t>
+    <t>脂肪组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B0%E5%B3%B6%E7%B4%A0%E6%8A%97%E6%80%A7</t>
   </si>
   <si>
-    <t>胰島素抗性</t>
+    <t>胰岛素抗性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E6%85%BE%E7%B4%A0</t>
@@ -1199,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%BD%E5%9B%8A%E6%94%B6%E7%B8%AE%E7%B4%A0</t>
   </si>
   <si>
-    <t>膽囊收縮素</t>
+    <t>胆囊收缩素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%81%94%E7%B4%A0</t>
@@ -1217,13 +1214,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%A8%9E%E7%A5%9E%E7%B6%93%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>中樞神經系統</t>
+    <t>中枢神经系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%A6%96%E4%B8%98</t>
   </si>
   <si>
-    <t>下視丘</t>
+    <t>下视丘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/melanocortin</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%93%E7%8B%80%E6%A0%B8</t>
   </si>
   <si>
-    <t>弓狀核</t>
+    <t>弓状核</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/lateral_hypothalamus</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%83</t>
   </si>
   <si>
-    <t>神經元</t>
+    <t>神经元</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/neuropeptide_Y</t>
@@ -1271,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%89%E7%89%87%E9%BB%91%E7%9A%AE%E8%B3%AA%E7%B4%A0%E5%8E%9F</t>
   </si>
   <si>
-    <t>鴉片黑皮質素原</t>
+    <t>鸦片黑皮质素原</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/cocaine-_and_amphetamine-regulated_transcript</t>
@@ -1283,19 +1280,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E9%87%8D</t>
   </si>
   <si>
-    <t>過重</t>
+    <t>过重</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85</t>
   </si>
   <si>
-    <t>傳染病</t>
+    <t>传染病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E4%B8%8D%E8%89%AF</t>
   </si>
   <si>
-    <t>營養不良</t>
+    <t>营养不良</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Preventive_Services_Task_Force</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E7%9A%87%E5%AE%B6%E5%85%A7%E7%A7%91%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦皇家內科醫學院</t>
+    <t>伦敦皇家内科医学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Faculty_of_Public_Health</t>
@@ -1337,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>英國下議院</t>
+    <t>英国下议院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Health_Select_Committee</t>
@@ -1367,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E4%BF%9D%E5%81%A5%E7%BD%B2</t>
   </si>
   <si>
-    <t>國民保健署</t>
+    <t>国民保健署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8F%E8%82%A5</t>
@@ -1379,13 +1376,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%AD%95</t>
   </si>
   <si>
-    <t>懷孕</t>
+    <t>怀孕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%A8%AD%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>後設分析</t>
+    <t>后设分析</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Cholesterol_Education_Program</t>
@@ -1397,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E7%A2%B3%E6%B0%B4%E5%8C%96%E5%90%88%E7%89%A9%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>低碳水化合物飲食</t>
+    <t>低碳水化合物饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E8%82%89%E5%87%8F%E8%82%A5%E6%B3%95</t>
@@ -1439,9 +1436,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%97%9B%E9%A3%8E</t>
   </si>
   <si>
-    <t>痛风</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%A3%E8%B4%A8%E5%B9%B3%E8%A1%A1%E7%B4%8A%E4%B9%B1</t>
   </si>
   <si>
@@ -1451,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E5%8F%B8%E4%BB%96</t>
   </si>
   <si>
-    <t>奧利司他</t>
+    <t>奥利司他</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/lorcaserin</t>
@@ -1481,7 +1475,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -1499,19 +1493,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津辭典</t>
+    <t>牛津辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%BC%A6%E5%A4%9A%E5%B0%94%E5%A4%AB%E7%9A%84%E7%BB%B4%E7%BA%B3%E6%96%AF</t>
@@ -1541,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%96%9C%E5%89%A7</t>
@@ -1589,13 +1583,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%85%8D%E7%96%AB%E7%BC%BA%E9%99%B7%E7%97%85%E6%AF%92</t>
   </si>
   <si>
-    <t>人類免疫缺陷病毒</t>
+    <t>人类免疫缺陷病毒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%B4%8D%E6%96%AF</t>
   </si>
   <si>
-    <t>維納斯</t>
+    <t>维纳斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E5%85%AB%E4%B8%96</t>
@@ -1613,13 +1607,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E4%BF%9D%E7%BE%85%C2%B7%E9%AD%AF%E6%9C%AC%E6%96%AF</t>
   </si>
   <si>
-    <t>彼得·保羅·魯本斯</t>
+    <t>彼得·保罗·鲁本斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E6%9C%AC%E6%96%AF%E5%BC%8F</t>
   </si>
   <si>
-    <t>魯本斯式</t>
+    <t>鲁本斯式</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Workers_compensation</t>
@@ -1661,13 +1655,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非政府組織</t>
+    <t>非政府组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AE%98%E9%9A%9C%E8%80%85%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國殘障者法案</t>
+    <t>美国残障者法案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Childhood_obesity</t>
@@ -1685,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E8%97%A5%E7%89%A9%E7%AE%A1%E7%90%86%E7%BD%B2</t>
   </si>
   <si>
-    <t>食品藥物管理署</t>
+    <t>食品药物管理署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Obesity_in_pets</t>
@@ -1727,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E5%8C%96%E5%8A%91</t>
   </si>
   <si>
-    <t>塑化劑</t>
+    <t>塑化剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%BB%E8%8B%AF%E4%BA%8C%E7%94%B2%E9%85%B8%E9%85%AF</t>
@@ -1757,13 +1751,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%B0%E8%8B%AF%E4%BA%8C%E7%94%B2%E9%85%B8%E4%BA%8C%E7%95%B0%E5%A3%AC%E9%85%AF</t>
   </si>
   <si>
-    <t>鄰苯二甲酸二異壬酯</t>
+    <t>邻苯二甲酸二异壬酯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%B0%E8%8B%AF%E4%BA%8C%E7%94%B2%E9%85%B8%E4%BA%8C(2-%E4%B9%99%E5%9F%BA%E5%B7%B1%E5%9F%BA)%E9%85%AF</t>
   </si>
   <si>
-    <t>鄰苯二甲酸二(2-乙基己基)酯</t>
+    <t>邻苯二甲酸二(2-乙基己基)酯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Diisodecyl_phthalate</t>
@@ -1805,13 +1799,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E4%B8%81%E7%83%AF%E4%BA%8C%E9%85%B8%E9%85%90</t>
   </si>
   <si>
-    <t>順丁烯二酸酐</t>
+    <t>顺丁烯二酸酐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E4%B8%81%E7%83%AF%E4%BA%8C%E9%85%B8</t>
   </si>
   <si>
-    <t>順丁烯二酸</t>
+    <t>顺丁烯二酸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adipate</t>
@@ -1835,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%AB%94</t>
   </si>
   <si>
-    <t>單體</t>
+    <t>单体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%9A%E7%94%B2%E7%83%B7</t>
@@ -1877,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%A9%9F%E9%8C%AB%E5%8C%96%E5%90%88%E7%89%A9</t>
   </si>
   <si>
-    <t>有機錫化合物</t>
+    <t>有机锡化合物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Perfluorinated_compound</t>
@@ -1889,31 +1883,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E8%86%A0</t>
   </si>
   <si>
-    <t>塑膠</t>
+    <t>塑胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%B4%E7%95%B8%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>致畸物質</t>
+    <t>致畸物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%B4%E7%99%8C%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>致癌物質</t>
+    <t>致癌物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%B9%B2%E6%93%BE%E7%B4%A0</t>
   </si>
   <si>
-    <t>內分泌干擾素</t>
+    <t>内分泌干扰素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E8%86%A0%E6%B7%BB%E5%8A%A0%E5%8A%91</t>
   </si>
   <si>
-    <t>塑膠添加劑</t>
+    <t>塑胶添加剂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Plastic_recycling</t>
@@ -1943,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%BA%97%E9%BE%8D%E7%9B%92</t>
   </si>
   <si>
-    <t>保麗龍盒</t>
+    <t>保丽龙盒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PTFE</t>
@@ -1961,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B9%85%E6%80%A7%E6%9C%89%E6%A9%9F%E6%B1%A1%E6%9F%93%E7%89%A9</t>
   </si>
   <si>
-    <t>持久性有機污染物</t>
+    <t>持久性有机污染物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E4%BA%8E%E5%8C%96%E5%AD%A6%E5%93%81%E6%B3%A8%E5%86%8C%E3%80%81%E8%AF%84%E4%BC%B0%E3%80%81%E8%AE%B8%E5%8F%AF%E5%92%8C%E9%99%90%E5%88%B6%E6%B3%95%E6%A1%88</t>
@@ -1985,13 +1979,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A5%A7%E8%BE%9B</t>
   </si>
   <si>
-    <t>戴奧辛</t>
+    <t>戴奥辛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%B0%AF%E8%81%AF%E8%8B%AF</t>
   </si>
   <si>
-    <t>多氯聯苯</t>
+    <t>多氯联苯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E4%B8%AD%E6%AF%92</t>
@@ -2015,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AE%BA%E8%9F%B2%E5%8A%91</t>
   </si>
   <si>
-    <t>殺蟲劑</t>
+    <t>杀虫剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%8D%89%E6%9E%AF</t>
@@ -2075,7 +2069,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%86%BD%E5%9B%BA%E9%86%87%E8%A1%80%E7%97%87</t>
   </si>
   <si>
-    <t>高膽固醇血症</t>
+    <t>高胆固醇血症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hypertriglyceridemia</t>
@@ -2201,13 +2195,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%97%8F%E6%80%A7%E8%85%8E%E6%BE%B1%E7%B2%89%E6%A8%A3%E8%AE%8A</t>
   </si>
   <si>
-    <t>家族性腎澱粉樣變</t>
+    <t>家族性肾淀粉样变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -7433,7 +7427,7 @@
         <v>335</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>98</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7459,10 +7453,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7488,10 +7482,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7517,10 +7511,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7546,10 +7540,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7575,10 +7569,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7604,10 +7598,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7633,10 +7627,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7662,10 +7656,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7691,10 +7685,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7720,10 +7714,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
         <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>356</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7749,10 +7743,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
         <v>357</v>
-      </c>
-      <c r="F179" t="s">
-        <v>358</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7778,10 +7772,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
         <v>359</v>
-      </c>
-      <c r="F180" t="s">
-        <v>360</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7807,10 +7801,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
         <v>361</v>
-      </c>
-      <c r="F181" t="s">
-        <v>362</v>
       </c>
       <c r="G181" t="n">
         <v>8</v>
@@ -7836,10 +7830,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
         <v>363</v>
-      </c>
-      <c r="F182" t="s">
-        <v>364</v>
       </c>
       <c r="G182" t="n">
         <v>4</v>
@@ -7865,10 +7859,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
         <v>365</v>
-      </c>
-      <c r="F183" t="s">
-        <v>366</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7894,10 +7888,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" t="s">
         <v>367</v>
-      </c>
-      <c r="F184" t="s">
-        <v>368</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7923,10 +7917,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" t="s">
         <v>369</v>
-      </c>
-      <c r="F185" t="s">
-        <v>370</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7981,10 +7975,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -8010,10 +8004,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8039,10 +8033,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8068,10 +8062,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8097,10 +8091,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>25</v>
@@ -8126,10 +8120,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -8155,10 +8149,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8184,10 +8178,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8213,10 +8207,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8242,10 +8236,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8271,10 +8265,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8300,10 +8294,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8329,10 +8323,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8358,10 +8352,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8387,10 +8381,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8416,10 +8410,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>9</v>
@@ -8445,10 +8439,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8474,10 +8468,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -8503,10 +8497,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8532,10 +8526,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -8561,10 +8555,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>6</v>
@@ -8590,10 +8584,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8619,10 +8613,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8648,10 +8642,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8677,10 +8671,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8706,10 +8700,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>20</v>
@@ -8735,10 +8729,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8764,10 +8758,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -8793,10 +8787,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8822,10 +8816,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8851,10 +8845,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8880,10 +8874,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8909,10 +8903,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8938,10 +8932,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8967,10 +8961,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8996,10 +8990,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9025,10 +9019,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9054,10 +9048,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9083,10 +9077,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9112,10 +9106,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>448</v>
+      </c>
+      <c r="F226" t="s">
         <v>449</v>
-      </c>
-      <c r="F226" t="s">
-        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9141,10 +9135,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>450</v>
+      </c>
+      <c r="F227" t="s">
         <v>451</v>
-      </c>
-      <c r="F227" t="s">
-        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>4</v>
@@ -9170,10 +9164,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>452</v>
+      </c>
+      <c r="F228" t="s">
         <v>453</v>
-      </c>
-      <c r="F228" t="s">
-        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -9199,10 +9193,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>454</v>
+      </c>
+      <c r="F229" t="s">
         <v>455</v>
-      </c>
-      <c r="F229" t="s">
-        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9257,10 +9251,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>456</v>
+      </c>
+      <c r="F231" t="s">
         <v>457</v>
-      </c>
-      <c r="F231" t="s">
-        <v>458</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9286,10 +9280,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>458</v>
+      </c>
+      <c r="F232" t="s">
         <v>459</v>
-      </c>
-      <c r="F232" t="s">
-        <v>460</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9315,10 +9309,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>460</v>
+      </c>
+      <c r="F233" t="s">
         <v>461</v>
-      </c>
-      <c r="F233" t="s">
-        <v>462</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9344,10 +9338,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>462</v>
+      </c>
+      <c r="F234" t="s">
         <v>463</v>
-      </c>
-      <c r="F234" t="s">
-        <v>464</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9373,10 +9367,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>464</v>
+      </c>
+      <c r="F235" t="s">
         <v>465</v>
-      </c>
-      <c r="F235" t="s">
-        <v>466</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9402,10 +9396,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>466</v>
+      </c>
+      <c r="F236" t="s">
         <v>467</v>
-      </c>
-      <c r="F236" t="s">
-        <v>468</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9431,10 +9425,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>468</v>
+      </c>
+      <c r="F237" t="s">
         <v>469</v>
-      </c>
-      <c r="F237" t="s">
-        <v>470</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9460,10 +9454,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>470</v>
+      </c>
+      <c r="F238" t="s">
         <v>471</v>
-      </c>
-      <c r="F238" t="s">
-        <v>472</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9489,10 +9483,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>212</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9518,10 +9512,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9547,10 +9541,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9576,10 +9570,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9605,10 +9599,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9634,10 +9628,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -9663,10 +9657,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9692,10 +9686,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G246" t="n">
         <v>30</v>
@@ -9721,10 +9715,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -9750,10 +9744,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G248" t="n">
         <v>6</v>
@@ -9779,10 +9773,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9808,10 +9802,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9837,10 +9831,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -9866,10 +9860,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9895,10 +9889,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9924,10 +9918,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9953,10 +9947,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -9982,10 +9976,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F256" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10011,10 +10005,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F257" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10040,10 +10034,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F258" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10069,10 +10063,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10098,10 +10092,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10127,10 +10121,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F261" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10156,10 +10150,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F262" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10185,10 +10179,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F263" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -10214,10 +10208,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F264" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10243,10 +10237,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F265" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10272,10 +10266,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F266" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10301,10 +10295,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F267" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10330,10 +10324,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F268" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10359,10 +10353,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F269" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10388,10 +10382,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F270" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10417,10 +10411,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F271" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10446,10 +10440,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10475,10 +10469,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F273" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10504,10 +10498,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F274" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10533,10 +10527,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F275" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G275" t="n">
         <v>4</v>
@@ -10562,10 +10556,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10591,10 +10585,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F277" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10620,10 +10614,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F278" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10649,10 +10643,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F279" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10678,10 +10672,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F280" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10707,10 +10701,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F281" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10736,10 +10730,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F282" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10765,10 +10759,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F283" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G283" t="n">
         <v>10</v>
@@ -10794,10 +10788,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F284" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G284" t="n">
         <v>6</v>
@@ -10823,10 +10817,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F285" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10852,10 +10846,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F286" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -10881,10 +10875,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F287" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10910,10 +10904,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F288" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10939,10 +10933,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F289" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10968,10 +10962,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F290" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -10997,10 +10991,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F291" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11026,10 +11020,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F292" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11055,10 +11049,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F293" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11084,10 +11078,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F294" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11113,10 +11107,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F295" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11142,10 +11136,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F296" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11171,10 +11165,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F297" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11200,10 +11194,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F298" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11229,10 +11223,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F299" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11258,10 +11252,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F300" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11287,10 +11281,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F301" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11316,10 +11310,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F302" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11345,10 +11339,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F303" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11374,10 +11368,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F304" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11403,10 +11397,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F305" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11432,10 +11426,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F306" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11461,10 +11455,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F307" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11490,10 +11484,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F308" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11519,10 +11513,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F309" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11548,10 +11542,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F310" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11577,10 +11571,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F311" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11606,10 +11600,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F312" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11635,10 +11629,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F313" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11664,10 +11658,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F314" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G314" t="n">
         <v>6</v>
@@ -11693,10 +11687,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F315" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11722,10 +11716,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F316" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11751,10 +11745,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F317" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11780,10 +11774,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F318" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11809,10 +11803,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F319" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -11838,10 +11832,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F320" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11867,10 +11861,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F321" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -11896,10 +11890,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F322" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11925,10 +11919,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F323" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11954,10 +11948,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F324" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11983,10 +11977,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F325" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12012,10 +12006,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F326" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12041,10 +12035,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F327" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12070,10 +12064,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F328" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12099,10 +12093,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F329" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12128,10 +12122,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F330" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12157,10 +12151,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F331" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12186,10 +12180,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F332" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12215,10 +12209,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F333" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12244,10 +12238,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F334" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12273,10 +12267,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F335" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12302,10 +12296,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F336" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12331,10 +12325,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F337" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12360,10 +12354,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F338" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12389,10 +12383,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F339" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12418,10 +12412,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F340" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12447,10 +12441,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F341" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12476,10 +12470,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F342" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12505,10 +12499,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F343" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12534,10 +12528,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F344" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12563,10 +12557,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F345" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12592,10 +12586,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F346" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12621,10 +12615,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F347" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12650,10 +12644,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12679,10 +12673,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F349" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12708,10 +12702,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F350" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12737,10 +12731,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F351" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12766,10 +12760,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F352" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12795,10 +12789,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F353" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12824,10 +12818,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F354" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12853,10 +12847,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F355" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12882,10 +12876,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F356" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12911,10 +12905,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F357" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12940,10 +12934,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F358" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12969,10 +12963,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F359" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12998,10 +12992,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F360" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13027,10 +13021,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F361" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13056,10 +13050,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F362" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13085,10 +13079,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F363" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13114,10 +13108,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F364" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13143,10 +13137,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F365" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13172,10 +13166,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F366" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13201,10 +13195,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F367" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13230,10 +13224,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F368" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G368" t="n">
         <v>3</v>
@@ -13259,10 +13253,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F369" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13288,10 +13282,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F370" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
